--- a/science fair.xlsx
+++ b/science fair.xlsx
@@ -1211,7 +1211,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CT98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
